--- a/480124_PCB/Aide_Montage.xlsx
+++ b/480124_PCB/Aide_Montage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guill\Documents\GitHub\480124_RadioConversion\480124_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B33FEE-BC83-468F-BCCB-E60FDC2519EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD8B2F9-02C2-4B09-BB29-D6212BB92076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27DD446C-ED5A-4534-8C82-10081AF18E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27DD446C-ED5A-4534-8C82-10081AF18E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2693,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2052E6D3-CE0E-44D5-9CC7-D9DB16DDFFBD}">
   <dimension ref="N2:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104BC88E-F526-4C75-A884-49B0A40B6F6B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AD65" sqref="AD65"/>
     </sheetView>
   </sheetViews>
